--- a/resultado_analisis/bd_resultados.xlsx
+++ b/resultado_analisis/bd_resultados.xlsx
@@ -142,10 +142,10 @@
     <t>mucha</t>
   </si>
   <si>
+    <t>mediana</t>
+  </si>
+  <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>mediana</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>41</v>
       </c>
       <c r="G2">
-        <v>3.2</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -569,7 +569,7 @@
         <v>42</v>
       </c>
       <c r="G3">
-        <v>0.5600000000000001</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -589,7 +589,7 @@
         <v>41</v>
       </c>
       <c r="G4">
-        <v>4.88</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -609,7 +609,7 @@
         <v>42</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -626,10 +626,10 @@
         <v>71.7</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>3.39</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -646,10 +646,10 @@
         <v>65.09999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -669,7 +669,7 @@
         <v>41</v>
       </c>
       <c r="G8">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -689,7 +689,7 @@
         <v>41</v>
       </c>
       <c r="G9">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -709,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="G10">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="G11">
-        <v>0.86</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -746,10 +746,10 @@
         <v>57.2</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>1.22</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -766,10 +766,10 @@
         <v>70.5</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -786,10 +786,10 @@
         <v>55.1</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14">
-        <v>0.86</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -806,10 +806,10 @@
         <v>53.9</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -826,10 +826,10 @@
         <v>76.09999999999999</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16">
-        <v>0.65</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -846,10 +846,10 @@
         <v>77.40000000000001</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17">
-        <v>2.97</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -869,7 +869,7 @@
         <v>41</v>
       </c>
       <c r="G18">
-        <v>4.86</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -889,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="G19">
-        <v>4.25</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -906,10 +906,10 @@
         <v>75.09999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>4.22</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -929,7 +929,7 @@
         <v>41</v>
       </c>
       <c r="G21">
-        <v>4.26</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -946,10 +946,10 @@
         <v>63.8</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -966,10 +966,10 @@
         <v>62.7</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>0.76</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="G24">
-        <v>0.63</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1009,7 +1009,7 @@
         <v>41</v>
       </c>
       <c r="G25">
-        <v>4.71</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1026,10 +1026,10 @@
         <v>64.90000000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26">
-        <v>3.88</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1049,7 +1049,7 @@
         <v>41</v>
       </c>
       <c r="G27">
-        <v>3.31</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="G28">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1086,10 +1086,10 @@
         <v>67.8</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>4.51</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1106,10 +1106,10 @@
         <v>67.7</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1129,7 +1129,7 @@
         <v>41</v>
       </c>
       <c r="G31">
-        <v>4.32</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1146,10 +1146,10 @@
         <v>71.40000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32">
-        <v>0.77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1166,10 +1166,10 @@
         <v>72.40000000000001</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33">
-        <v>1.66</v>
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>
